--- a/2016/进度.xlsx
+++ b/2016/进度.xlsx
@@ -7,19 +7,20 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="2016导论" sheetId="6" r:id="rId1"/>
-    <sheet name="2015C语言" sheetId="5" r:id="rId2"/>
-    <sheet name="2015导论" sheetId="4" r:id="rId3"/>
-    <sheet name="2014" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="2016C语言" sheetId="7" r:id="rId1"/>
+    <sheet name="2016导论" sheetId="6" r:id="rId2"/>
+    <sheet name="2015C语言" sheetId="5" r:id="rId3"/>
+    <sheet name="2015导论" sheetId="4" r:id="rId4"/>
+    <sheet name="2014" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
   <si>
     <t>课次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,6 +250,23 @@
   </si>
   <si>
     <t>剩余3次课交给C语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch1:C语言基础，C语言历史，特点，简单程序介绍（较详细）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法，Dev-C++集成环境；ch2: C的基本数据类型及运算
+数据类型，常量，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch2:变量，enum，算术、赋值、关系、逻辑、条件、逗号运算符及表达式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,26 +464,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -769,10 +787,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="43.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="20"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="22">
+        <v>7</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="20"/>
+    </row>
+    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="22">
+        <v>8</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="22">
+        <v>9</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="36"/>
+    </row>
+    <row r="7" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="22">
+        <v>10</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="36"/>
+    </row>
+    <row r="8" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="22">
+        <v>11</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="20"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="22">
+        <v>12</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="20"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="22">
+        <v>13</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="22">
+        <v>14</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="20"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="22">
+        <v>15</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="22">
+        <v>16</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="20"/>
+    </row>
+    <row r="14" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="22">
+        <v>17</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="20"/>
+    </row>
+    <row r="15" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" s="22">
+        <v>18</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="20"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="22">
+        <v>19</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="20"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="22">
+        <v>20</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="22">
+        <v>21</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="20"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="22">
+        <v>22</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C5:C7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -785,14 +1004,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="D1" s="31" t="s">
+      <c r="B1" s="32"/>
+      <c r="D1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="31"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -810,13 +1029,13 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="30" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="30" t="s">
         <v>12</v>
       </c>
     </row>
@@ -824,13 +1043,13 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="30" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="6">
         <v>2</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="30" t="s">
         <v>13</v>
       </c>
     </row>
@@ -838,7 +1057,7 @@
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="30" t="s">
         <v>56</v>
       </c>
       <c r="D5" s="2"/>
@@ -848,7 +1067,7 @@
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="31" t="s">
         <v>57</v>
       </c>
     </row>
@@ -856,7 +1075,7 @@
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="31" t="s">
         <v>58</v>
       </c>
     </row>
@@ -864,7 +1083,7 @@
       <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="31" t="s">
         <v>59</v>
       </c>
     </row>
@@ -872,7 +1091,7 @@
       <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="34" t="s">
         <v>60</v>
       </c>
     </row>
@@ -880,13 +1099,13 @@
       <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="34"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -900,7 +1119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -916,15 +1135,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="20"/>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="31"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="21" t="s">
@@ -976,7 +1195,7 @@
       <c r="B5" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="36" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="6">
@@ -993,7 +1212,7 @@
       <c r="B6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="33"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="6">
         <v>4</v>
       </c>
@@ -1006,7 +1225,7 @@
       <c r="B7" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="6">
         <v>5</v>
       </c>
@@ -1164,7 +1383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -1182,14 +1401,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="D1" s="31" t="s">
+      <c r="B1" s="32"/>
+      <c r="D1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="31"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -1302,7 +1521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -1318,11 +1537,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -1453,7 +1672,7 @@
       <c r="C12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="36" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1465,7 +1684,7 @@
       <c r="C13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="33"/>
+      <c r="D13" s="36"/>
     </row>
     <row r="14" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
@@ -1475,7 +1694,7 @@
       <c r="C14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="33"/>
+      <c r="D14" s="36"/>
     </row>
     <row r="15" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
@@ -1609,19 +1828,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1636,4 +1842,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2016/进度.xlsx
+++ b/2016/进度.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="70">
   <si>
     <t>课次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,6 +267,26 @@
   </si>
   <si>
     <t>ch2:变量，enum，算术、赋值、关系、逻辑、条件、逗号运算符及表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级1604052、1604061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch2作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch3作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上机安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2次上机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,7 +399,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -470,6 +490,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -479,11 +509,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -787,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -801,10 +828,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -812,9 +839,11 @@
         <v>15</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="20"/>
+        <v>65</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="27" t="s">
@@ -823,7 +852,9 @@
       <c r="B3" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="20" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="22">
@@ -841,9 +872,7 @@
       <c r="B5" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>30</v>
-      </c>
+      <c r="C5" s="39"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="22">
@@ -852,18 +881,20 @@
       <c r="B6" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="36"/>
-    </row>
-    <row r="7" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="C6" s="39"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="22">
         <v>10</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="36"/>
-    </row>
-    <row r="8" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="C7" s="39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>11</v>
       </c>
@@ -879,7 +910,9 @@
       <c r="B9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="20" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
@@ -917,7 +950,7 @@
       </c>
       <c r="C13" s="20"/>
     </row>
-    <row r="14" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="22">
         <v>17</v>
       </c>
@@ -926,7 +959,7 @@
       </c>
       <c r="C14" s="20"/>
     </row>
-    <row r="15" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="22">
         <v>18</v>
       </c>
@@ -951,9 +984,7 @@
       <c r="B17" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>43</v>
-      </c>
+      <c r="C17" s="20"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="22">
@@ -971,14 +1002,23 @@
       <c r="B19" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>46</v>
-      </c>
+      <c r="C19" s="20"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="32">
+        <v>23</v>
+      </c>
+      <c r="B20" s="33"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="32">
+        <v>24</v>
+      </c>
+      <c r="B21" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C5:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1004,14 +1044,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="D1" s="33" t="s">
+      <c r="B1" s="36"/>
+      <c r="D1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="33"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -1091,7 +1131,7 @@
       <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="38" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1099,13 +1139,13 @@
       <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="34"/>
+      <c r="B10" s="38"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="34"/>
+      <c r="B11" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1135,15 +1175,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="20"/>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="33"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="21" t="s">
@@ -1195,7 +1235,7 @@
       <c r="B5" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="35" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="6">
@@ -1212,7 +1252,7 @@
       <c r="B6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="6">
         <v>4</v>
       </c>
@@ -1225,7 +1265,7 @@
       <c r="B7" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="36"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="6">
         <v>5</v>
       </c>
@@ -1401,14 +1441,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="D1" s="33" t="s">
+      <c r="B1" s="36"/>
+      <c r="D1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="33"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -1537,11 +1577,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -1672,7 +1712,7 @@
       <c r="C12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="35" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1684,7 +1724,7 @@
       <c r="C13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="36"/>
+      <c r="D13" s="35"/>
     </row>
     <row r="14" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
@@ -1694,7 +1734,7 @@
       <c r="C14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="35"/>
     </row>
     <row r="15" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="11">

--- a/2016/进度.xlsx
+++ b/2016/进度.xlsx
@@ -278,15 +278,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ch3作业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上机安排</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2次上机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续ch2，ch3作业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,23 +494,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -817,7 +817,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -828,10 +828,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -842,7 +842,7 @@
         <v>65</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -853,7 +853,7 @@
         <v>48</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -872,7 +872,7 @@
       <c r="B5" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="39"/>
+      <c r="C5" s="34"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="22">
@@ -881,7 +881,7 @@
       <c r="B6" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="39"/>
+      <c r="C6" s="34"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="22">
@@ -890,7 +890,7 @@
       <c r="B7" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="34" t="s">
         <v>66</v>
       </c>
     </row>
@@ -911,7 +911,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -1175,10 +1175,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="20"/>
       <c r="D1" s="37" t="s">
         <v>10</v>
@@ -1235,7 +1235,7 @@
       <c r="B5" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="6">
@@ -1252,7 +1252,7 @@
       <c r="B6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="6">
         <v>4</v>
       </c>
@@ -1265,7 +1265,7 @@
       <c r="B7" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="35"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="6">
         <v>5</v>
       </c>
@@ -1577,11 +1577,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -1712,7 +1712,7 @@
       <c r="C12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="39" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       <c r="C13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="35"/>
+      <c r="D13" s="39"/>
     </row>
     <row r="14" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
@@ -1734,7 +1734,7 @@
       <c r="C14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="35"/>
+      <c r="D14" s="39"/>
     </row>
     <row r="15" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="11">

--- a/2016/进度.xlsx
+++ b/2016/进度.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
   <si>
     <t>课次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,10 +274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ch2作业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上机安排</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,7 +282,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>继续ch2，ch3作业</t>
+    <t>讲解环境，ch2，p55,2,3,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲解ch2,ch3,p77,1,3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲解ch3,ch4,p88,6,7,9,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,7 +407,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -494,8 +502,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -511,6 +519,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -814,207 +826,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="91" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="5.75" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="27" t="s">
         <v>61</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C3" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="22">
         <v>7</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="20"/>
-    </row>
-    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="C4" s="40"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="22">
         <v>8</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="34"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C5" s="41"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="22">
         <v>9</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="34"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C6" s="41"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="22">
         <v>10</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C7" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>11</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="20"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C8" s="40"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="22">
         <v>12</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="40" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>13</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="20"/>
-    </row>
-    <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="C10" s="40"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
         <v>14</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="20"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C11" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="22">
         <v>15</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="20"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C12" s="40"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="22">
         <v>16</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="20"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C13" s="40"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="22">
         <v>17</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="20"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C14" s="40"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="22">
         <v>18</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="20"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C15" s="40"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="22">
         <v>19</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="20"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C16" s="40"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="22">
         <v>20</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="20"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C17" s="40"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="22">
         <v>21</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="20"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C18" s="40"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="22">
         <v>22</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="20"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C19" s="40"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="32">
         <v>23</v>
       </c>
       <c r="B20" s="33"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C20" s="33"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="32">
         <v>24</v>
       </c>
       <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/2016/进度.xlsx
+++ b/2016/进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="2016C语言" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="76">
   <si>
     <t>课次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,6 +295,23 @@
   </si>
   <si>
     <t>讲解ch3,ch4,p88,6,7,9,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch6：冒泡、选择排序，ch7：函数及变量存储类型：库函数，自定义函数，参数传递，递归调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch6：字符数组和字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch5：break; contionue
+习题课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">讲解ch4,ch5,p106,1,2,5,7,11 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,24 +522,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -829,22 +846,22 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="91" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="3" max="3" width="28.875" customWidth="1"/>
     <col min="4" max="4" width="5.75" style="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -854,7 +871,7 @@
       <c r="B2" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="35" t="s">
         <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -868,7 +885,7 @@
       <c r="B3" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="35" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="2"/>
@@ -880,7 +897,7 @@
       <c r="B4" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="40"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -890,7 +907,7 @@
       <c r="B5" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="41"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -900,7 +917,7 @@
       <c r="B6" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="41"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -910,7 +927,7 @@
       <c r="B7" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="36" t="s">
         <v>68</v>
       </c>
       <c r="D7" s="2">
@@ -924,7 +941,7 @@
       <c r="B8" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="40"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -934,7 +951,7 @@
       <c r="B9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="35" t="s">
         <v>69</v>
       </c>
       <c r="D9" s="2">
@@ -948,7 +965,7 @@
       <c r="B10" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="40"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -956,12 +973,14 @@
         <v>14</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="22">
@@ -970,7 +989,7 @@
       <c r="B12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="40"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -978,19 +997,23 @@
         <v>16</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="22">
         <v>17</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="40"/>
+        <v>72</v>
+      </c>
+      <c r="C14" s="35"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -1000,7 +1023,7 @@
       <c r="B15" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="40"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -1010,7 +1033,7 @@
       <c r="B16" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="40"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -1020,7 +1043,7 @@
       <c r="B17" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="40"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -1030,7 +1053,7 @@
       <c r="B18" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="40"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -1040,7 +1063,7 @@
       <c r="B19" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="40"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -1087,14 +1110,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="D1" s="37" t="s">
+      <c r="B1" s="38"/>
+      <c r="D1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -1174,7 +1197,7 @@
       <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="40" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1182,13 +1205,13 @@
       <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="40"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="38"/>
+      <c r="B11" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1218,15 +1241,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="20"/>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="21" t="s">
@@ -1278,7 +1301,7 @@
       <c r="B5" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="41" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="6">
@@ -1295,7 +1318,7 @@
       <c r="B6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="39"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="6">
         <v>4</v>
       </c>
@@ -1308,7 +1331,7 @@
       <c r="B7" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="39"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="6">
         <v>5</v>
       </c>
@@ -1484,14 +1507,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="D1" s="37" t="s">
+      <c r="B1" s="38"/>
+      <c r="D1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -1620,11 +1643,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
       <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -1755,7 +1778,7 @@
       <c r="C12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="41" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1767,7 +1790,7 @@
       <c r="C13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="39"/>
+      <c r="D13" s="41"/>
     </row>
     <row r="14" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
@@ -1777,7 +1800,7 @@
       <c r="C14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="41"/>
     </row>
     <row r="15" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="11">

--- a/2016/进度.xlsx
+++ b/2016/进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="2016C语言" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
   <si>
     <t>课次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,10 +298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ch6：冒泡、选择排序，ch7：函数及变量存储类型：库函数，自定义函数，参数传递，递归调用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ch6：字符数组和字符串</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -312,6 +308,14 @@
   </si>
   <si>
     <t xml:space="preserve">讲解ch4,ch5,p106,1,2,5,7,11 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch6：冒泡、选择排序，ch7：函数及变量存储类型：库函数，自定义函数，参数传递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch7：递归调用，函数及变量存储类型，变量的存储类型，动态，静态变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -846,7 +850,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -973,7 +977,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>71</v>
@@ -997,10 +1001,10 @@
         <v>16</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2">
         <v>4</v>
@@ -1011,7 +1015,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="2"/>
@@ -1021,7 +1025,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="2"/>

--- a/2016/进度.xlsx
+++ b/2016/进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="2016C语言" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="80">
   <si>
     <t>课次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,11 +311,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ch6：冒泡、选择排序，ch7：函数及变量存储类型：库函数，自定义函数，参数传递</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch7：递归调用，函数及变量存储类型，变量的存储类型，动态，静态变量</t>
+    <t>ch8：指针与数组，指针与函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch8：指针基本概念，指针做函数的参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch6：冒泡、选择排序，ch7：函数及变量存储类型：库函数，自定义函数，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch7：参数传递，递归调用，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch7：函数及变量存储类型，变量的存储类型，动态，静态变量，宏定义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -850,7 +862,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1015,7 +1027,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="2"/>
@@ -1025,7 +1037,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="2"/>
@@ -1035,7 +1047,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="2"/>
@@ -1045,7 +1057,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="2"/>
@@ -1054,8 +1066,8 @@
       <c r="A18" s="22">
         <v>21</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>44</v>
+      <c r="B18" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="2"/>
@@ -1064,8 +1076,8 @@
       <c r="A19" s="22">
         <v>22</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>45</v>
+      <c r="B19" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="2"/>
@@ -1074,7 +1086,9 @@
       <c r="A20" s="32">
         <v>23</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="24" t="s">
+        <v>45</v>
+      </c>
       <c r="C20" s="33"/>
       <c r="D20" s="2"/>
     </row>

--- a/2016/进度.xlsx
+++ b/2016/进度.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="81">
   <si>
     <t>课次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,10 +311,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ch8：指针与数组，指针与函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ch8：指针基本概念，指针做函数的参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -328,6 +324,14 @@
   </si>
   <si>
     <t>ch7：函数及变量存储类型，变量的存储类型，动态，静态变量，宏定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch8：指针与数组，数组和指针做函数的参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch8：指针与字符串 ch9：结构体与公用体，定义，引用，初始化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -862,7 +866,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1027,7 +1031,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="2"/>
@@ -1037,7 +1041,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="2"/>
@@ -1047,7 +1051,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="2"/>
@@ -1057,7 +1061,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="2"/>
@@ -1067,7 +1071,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="2"/>
@@ -1077,7 +1081,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="2"/>
@@ -1086,9 +1090,7 @@
       <c r="A20" s="32">
         <v>23</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>45</v>
-      </c>
+      <c r="B20" s="24"/>
       <c r="C20" s="33"/>
       <c r="D20" s="2"/>
     </row>

--- a/2016/进度.xlsx
+++ b/2016/进度.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="89">
   <si>
     <t>课次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,19 +282,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>讲解环境，ch2，p55,2,3,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讲解ch2,ch3,p77,1,3,4,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讲解ch3,ch4,p88,6,7,9,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -307,10 +295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">讲解ch4,ch5,p106,1,2,5,7,11 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ch8：指针基本概念，指针做函数的参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,7 +315,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ch8：指针与字符串 ch9：结构体与公用体，定义，引用，初始化</t>
+    <t xml:space="preserve">ch8：指针与字符串，指针数组 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch9：结构体指针，结构体数组，共用体。复习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲解环境，布置：ch2，p55,2,3,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲解ch2,布置：ch3,p77,1,3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲解ch3,布置：ch4,p88,6,7,9,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">讲解ch4,布置：ch5,p106,1,2,5,7,11 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲解ch9，复习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch9：结构体与公用体，结构体定义，引用，初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲解ch7, 测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲解ch6，布置：ch7,p155,1,5,8,9,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲解ch5,布置：ch6,p125,2,4,6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲解测试，布置：ch8,p192,1,2,4,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲解ch8,布置：ch9,p231,1,3,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -865,15 +897,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="91" customWidth="1"/>
-    <col min="3" max="3" width="28.875" customWidth="1"/>
+    <col min="3" max="3" width="37.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.75" style="34" customWidth="1"/>
   </cols>
   <sheetData>
@@ -895,7 +927,7 @@
         <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -940,7 +972,7 @@
       <c r="C6" s="36"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="22">
         <v>10</v>
       </c>
@@ -948,7 +980,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -972,7 +1004,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
@@ -993,10 +1025,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D11" s="2">
         <v>3</v>
@@ -1017,10 +1049,10 @@
         <v>16</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2">
         <v>4</v>
@@ -1031,7 +1063,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="2"/>
@@ -1041,17 +1073,21 @@
         <v>18</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="22">
         <v>19</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="2"/>
@@ -1061,46 +1097,70 @@
         <v>20</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="22">
         <v>21</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="22">
         <v>22</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="32">
         <v>23</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="2"/>
+      <c r="B20" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="32">
         <v>24</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="2"/>
+      <c r="B21" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="2">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/2016/进度.xlsx
+++ b/2016/进度.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="95">
   <si>
     <t>课次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,11 +227,100 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>5. 计算机网络入门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余3次课交给C语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch1:C语言基础，C语言历史，特点，简单程序介绍（较详细）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch2:变量，enum，算术、赋值、关系、逻辑、条件、逗号运算符及表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级1604052、1604061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上机安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2次上机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch5：break; contionue
+习题课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch9：结构体指针，结构体数组，共用体。复习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲解环境，布置：ch2，p55,2,3,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲解ch2,布置：ch3,p77,1,3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲解ch3,布置：ch4,p88,6,7,9,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">讲解ch4,布置：ch5,p106,1,2,5,7,11 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲解ch9，复习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲解ch7, 测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲解ch6，布置：ch7,p155,1,5,8,9,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲解ch5,布置：ch6,p125,2,4,6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲解测试，布置：ch8,p192,1,2,4,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲解ch8,布置：ch9,p231,1,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1. 1H：前言，ch1,发展史，分类与特点，应用。
 2H:重点：计算机中信息的表示：数制，以及各数制间的转换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>计算机编码，数值表示，ascii码，BCD码，国标码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>图形、视音频信息的表示。计算机发展趋势。
 2. 操作系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,44 +334,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5. 计算机网络入门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余3次课交给C语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch1:C语言基础，C语言历史，特点，简单程序介绍（较详细）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>算法，Dev-C++集成环境；ch2: C的基本数据类型及运算
 数据类型，常量，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ch2:变量，enum，算术、赋值、关系、逻辑、条件、逗号运算符及表达式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级1604052、1604061</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上机安排</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2次上机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C语言</t>
+    <t>ch2:位运算符及表达式，&amp;、*、sizeof、-&gt;,（类型）强制转换，复合赋值语句，++，--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch3: C程序设计初步，结构化程序设计思想，文件包含，数据输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch3: 数据输入；ch4:分支结构if,switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch5：循环结构程序设计，while,for,do/while</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch6：数组，一维、二维数组定义与引用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -290,8 +363,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ch5：break; contionue
-习题课</t>
+    <t>ch6：冒泡、选择排序，ch7：函数及变量存储类型：库函数，自定义函数，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch7：参数传递，递归调用，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch7：函数及变量存储类型，变量的存储类型，动态，静态变量，宏定义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -299,18 +379,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ch6：冒泡、选择排序，ch7：函数及变量存储类型：库函数，自定义函数，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch7：参数传递，递归调用，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch7：函数及变量存储类型，变量的存储类型，动态，静态变量，宏定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ch8：指针与数组，数组和指针做函数的参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,51 +387,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ch9：结构体指针，结构体数组，共用体。复习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讲解环境，布置：ch2，p55,2,3,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讲解ch2,布置：ch3,p77,1,3,4,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讲解ch3,布置：ch4,p88,6,7,9,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">讲解ch4,布置：ch5,p106,1,2,5,7,11 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讲解ch9，复习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ch9：结构体与公用体，结构体定义，引用，初始化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讲解ch7, 测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讲解ch6，布置：ch7,p155,1,5,8,9,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讲解ch5,布置：ch6,p125,2,4,6,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讲解测试，布置：ch8,p192,1,2,4,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讲解ch8,布置：ch9,p231,1,3,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -897,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -921,24 +945,24 @@
         <v>15</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -947,7 +971,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="2"/>
@@ -957,7 +981,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="2"/>
@@ -967,20 +991,20 @@
         <v>9</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C6" s="36"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="22">
         <v>10</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -991,7 +1015,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="2"/>
@@ -1001,10 +1025,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
@@ -1015,7 +1039,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="2"/>
@@ -1025,10 +1049,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2">
         <v>3</v>
@@ -1039,7 +1063,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="2"/>
@@ -1049,10 +1073,10 @@
         <v>16</v>
       </c>
       <c r="B13" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="35" t="s">
         <v>69</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>81</v>
       </c>
       <c r="D13" s="2">
         <v>4</v>
@@ -1063,7 +1087,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="2"/>
@@ -1073,10 +1097,10 @@
         <v>18</v>
       </c>
       <c r="B15" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="35" t="s">
         <v>73</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>86</v>
       </c>
       <c r="D15" s="2">
         <v>5</v>
@@ -1087,7 +1111,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="2"/>
@@ -1097,10 +1121,10 @@
         <v>20</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2">
         <v>6</v>
@@ -1111,10 +1135,10 @@
         <v>21</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2">
         <v>7</v>
@@ -1125,10 +1149,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D19" s="2">
         <v>8</v>
@@ -1139,10 +1163,10 @@
         <v>23</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2">
         <v>9</v>
@@ -1153,10 +1177,10 @@
         <v>24</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D21" s="2">
         <v>10</v>
@@ -1177,7 +1201,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1216,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
@@ -1230,7 +1254,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="D4" s="6">
         <v>2</v>
@@ -1244,7 +1268,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
@@ -1254,7 +1278,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1262,7 +1286,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -1270,7 +1294,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -1278,7 +1302,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
